--- a/02_手順書/xlsx/01_git手順書.xlsx
+++ b/02_手順書/xlsx/01_git手順書.xlsx
@@ -12,6 +12,9 @@
     <sheet name="1-1_gitの説明" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="1-2_gitインストール" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="1-3_github登録" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ブランチの説明" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="リモートブランチ作成" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="2-1_git _add" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t xml:space="preserve">目次</t>
   </si>
@@ -108,6 +111,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">ブランチの説明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リモートブランチ作成</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="20"/>
@@ -153,49 +162,1257 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
+      <t xml:space="preserve">Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の説明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">はバージョン管理システムの仕組み</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">GitHub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">は、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の仕組みを使って動いているサービス名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">私たちが使用するのは、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の仕組みを利用した</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">というサービス</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">バージョン管理とは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソースファイルを修正・編集する際、必ずバックアップを取得する必要がある。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">さらに、修正・編集したファイルを修正・編集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">......</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">となるとバックアップが大量になり、ファイル名やフォルダ階層が雑多になってしまう。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">どのソースが最新なのか分からなくなり、ミスが増えてしまう可能性がある。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">上記の点を防ぐため、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">等のバージョン管理システムを使用して開発を行う場合が多い</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">※Github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">のほかにも</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">SVN(SubVersion)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">等のサービスがある。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">SVN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の仕組みと異なる点があるので注意</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">事前準備</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">のインストール</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">1.git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">のダウンロードページに行き</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">をダウンロードする。（例）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git-2.24.0.2-64-bit.exe</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://git-scm.com/download/win</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">※アクセスした際に勝手にダウンロードされたので注意。されない場合は</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">OS</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">に合わせてダウンロードする</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">2.git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">をインストールする</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">好みのテキストエディタを選択し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">一番上の項目にチェックを入れ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">上、真ん中の項目にチェックを入れ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">インストール完了まで待つ。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">3.Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の動作確認</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">スタート画面から「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」が存在するか確認する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git Bash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」を実行する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」 と入力し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ダウンロード、インストールしたバージョンと同じであれば完了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※私の環境である、「git version 2.15.0.windows.1」が表示されている</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">に登録</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">1.Github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">のページに行き、ユーザー登録を行う</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">各項目を埋める</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">：自分の分かりやすいものを</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">：作業用のメールアドレス等を設定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">：自分の分かりやすいものを</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">※練習用なので上記でも問題はない</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
       <t xml:space="preserve">3.</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">プラン設定</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">アカウントが作成されると、プランの設定画面に遷移する。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Unlimited public repositories for free</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」にチェックを入れて、「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Continue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」を押下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">アンケ―ト</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">プラン設定が終了すると、アンケート画面に遷移する</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">以下の通りにチェックを入れて「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」を押下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">アカウント承認の確認</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">アンケートが終了すると、以下の画面に遷移する</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Start a project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」を押下する</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">アカウント作成時に設定したメールアドレス宛にメールが届くので、承認を行って完了</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">リモートブランチの作成</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">リモートブランチの作成</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">作業用のフォルダを作成する。今後はここがレポジトリになるので、分かりやすい場所が良い</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">レポジトリを作成したい場所まで移動する</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">cd </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">C:/tmp/</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">~~</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">リモートレポジトリ用のフォルダを作成する</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">現環境では、C:/tmp/udemy/　配下に「git_tutorial」フォルダを作成した</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkdir git_tutorial</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">リモートレポジトリを設定する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">cd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンドで、手順</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">で作成したフォルダに移動する（今回は </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">C:/tmp/udemy/git_tutorial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ディレクトリ移動後、リモートリポジトリの設定を行う</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git init</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">リモートリポジトリの設定確認</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">でレポジトリが設定されたか確認する</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">※.git </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">フォルダがあることが確認できれば完了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="20"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ブランチの説明</t>
-    </r>
-  </si>
-  <si>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git add</t>
+    </r>
     <r>
       <rPr>
         <sz val="20"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -211,250 +1428,28 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">はバージョン管理システムの仕組み</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">GitHub</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">は、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">の仕組みを使って動いているサービス名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">私たちが使用するのは、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">の仕組みを利用した</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">というサービス</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">バージョン管理とは？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ソースファイルを修正・編集する際、必ずバックアップを取得する必要がある。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">さらに、修正・編集したファイルを修正・編集</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">......</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">となるとバックアップが大量になり、ファイル名やフォルダ階層が雑多になってしまう。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">どのソースが最新なのか分からなくなり、ミスが増えてしまう可能性がある。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">上記の点を防ぐため、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">等のバージョン管理システムを使用して開発を行う場合が多い</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">※Github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">のほかにも</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">SVN(SubVersion)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">等のサービスがある。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">SVN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">の仕組みと異なる点があるので注意</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">事前準備</t>
-  </si>
-  <si>
+      <t xml:space="preserve">git add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンドは、最終的にコミット・プッシュを行うファイルを選択するコマンド</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">※以降の</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -471,697 +1466,26 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">のインストール</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">1.git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">のダウンロードページに行き</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">をダウンロードする。（例）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Git-2.24.0.2-64-bit.exe</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://git-scm.com/download/win</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">※アクセスした際に勝手にダウンロードされたので注意。されない場合は</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">OS</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">に合わせてダウンロードする</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">2.git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">をインストールする</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Next</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を押下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">好みのテキストエディタを選択し</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Next</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を押下。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Next</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を押下。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">一番上の項目にチェックを入れ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Next</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を押下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">上、真ん中の項目にチェックを入れ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Next</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を押下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Install</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を押下</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">インストール完了まで待つ。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">3.Git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">の動作確認</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">スタート画面から「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">」が存在するか確認する</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Git Bash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">」を実行する</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">git version</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">」 と入力し、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Enter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を押下</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ダウンロード、インストールしたバージョンと同じであれば完了。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">※私の環境である、「git version 2.15.0.windows.1」が表示されている</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">に登録</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">1.Github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">のページに行き、ユーザー登録を行う</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">各項目を埋める</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Username</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：自分の分かりやすいものを</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：作業用のメールアドレス等を設定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：自分の分かりやすいものを</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">※練習用なので上記でも問題はない</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">プラン設定</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウントが作成されると、プランの設定画面に遷移する。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Unlimited public repositories for free</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">」にチェックを入れて、「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Continue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">」を押下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">アンケ―ト</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">プラン設定が終了すると、アンケート画面に遷移する</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">以下の通りにチェックを入れて「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">」を押下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">アカウント承認の確認</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">アンケートが終了すると、以下の画面に遷移する</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Start a project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">」を押下する</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント作成時に設定したメールアドレス宛にメールが届くので、承認を行って完了</t>
+      <t xml:space="preserve">コマンドの説明では、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git bash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">からコマンド実行する</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1171,7 +1495,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1318,8 +1642,33 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1366,6 +1715,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1435,7 +1790,7 @@
     <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1452,11 +1807,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1473,6 +1840,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1692,15 +2071,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>29880</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:colOff>19800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:colOff>92880</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1713,7 +2092,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2233800" y="5555880"/>
+          <a:off x="2223720" y="5727960"/>
           <a:ext cx="4950000" cy="3700080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1729,15 +2108,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:colOff>10080</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:colOff>83160</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1750,7 +2129,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2203920" y="9753480"/>
+          <a:off x="2214000" y="9925560"/>
           <a:ext cx="4950000" cy="3700440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1766,15 +2145,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:colOff>9720</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
+      <xdr:colOff>82800</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1787,7 +2166,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2203920" y="14008680"/>
+          <a:off x="2213640" y="14161680"/>
           <a:ext cx="4950000" cy="3700080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1931,16 +2310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>802800</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:colOff>63000</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1953,7 +2332,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2203920" y="22433040"/>
+          <a:off x="2193840" y="22605120"/>
           <a:ext cx="4950000" cy="3700440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2007,14 +2386,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>73080</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2027,7 +2406,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2203920" y="26659800"/>
+          <a:off x="2203920" y="26841240"/>
           <a:ext cx="4950000" cy="3700440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2044,14 +2423,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>73080</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2064,7 +2443,44 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2203920" y="30886200"/>
+          <a:off x="2203920" y="31039200"/>
+          <a:ext cx="4950000" cy="3700440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>29520</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>81720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>102600</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="画像 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2233440" y="35342280"/>
           <a:ext cx="4950000" cy="3700440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2081,51 +2497,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>73080</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="画像 9" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2203920" y="35112960"/>
-          <a:ext cx="4950000" cy="3700440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
-      <xdr:row>264</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2138,7 +2517,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2203920" y="39502080"/>
+          <a:off x="2203920" y="39655080"/>
           <a:ext cx="4950000" cy="3700440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3192,12 +3571,213 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="画像 20" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438280" y="960480"/>
+          <a:ext cx="5758560" cy="3537720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>127080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="画像 21" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438280" y="5349600"/>
+          <a:ext cx="5758560" cy="3540960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>763560</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19800</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>77760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="画像 22" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2388960" y="10829160"/>
+          <a:ext cx="5758560" cy="3539160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>555840</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>96840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>168480</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>29880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2994120" y="13737240"/>
+          <a:ext cx="425520" cy="258120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="ff0000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>207360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>412920</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="画像 19" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2018880" y="3803400"/>
+          <a:ext cx="7520760" cy="3692160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3217,64 +3797,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="4" t="s">
+    <row r="4" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="4" t="s">
+    <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="5" t="s">
+    <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="5" t="s">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4" t="s">
+    <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3296,7 +3882,7 @@
   <dimension ref="B2:D36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3306,58 +3892,58 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
-        <v>13</v>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="6" t="s">
-        <v>14</v>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="6" t="s">
-        <v>15</v>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="6" t="s">
-        <v>22</v>
+      <c r="C35" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="6" t="s">
-        <v>23</v>
+      <c r="D36" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3380,7 +3966,7 @@
   <dimension ref="B2:E357"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3393,112 +3979,112 @@
   <sheetData>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="6" t="s">
-        <v>25</v>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="6" t="s">
-        <v>26</v>
+      <c r="C5" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="7" t="s">
-        <v>27</v>
+      <c r="D6" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="8" t="s">
-        <v>28</v>
+      <c r="E7" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="6" t="s">
-        <v>29</v>
+      <c r="C32" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="6" t="s">
-        <v>30</v>
+      <c r="D34" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="6" t="s">
-        <v>30</v>
+      <c r="D60" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D86" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D112" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D138" s="9" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D112" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D138" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D164" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D190" s="6" t="s">
-        <v>30</v>
+      <c r="D190" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D216" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D243" s="6" t="s">
-        <v>35</v>
+      <c r="D243" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D269" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="6" t="s">
-        <v>37</v>
+      <c r="C272" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D273" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D303" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D330" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D356" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E357" s="9" t="s">
-        <v>42</v>
+      <c r="E357" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3521,10 +4107,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:E127"/>
+  <dimension ref="B2:E130"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D128" activeCellId="0" sqref="D128"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3534,93 +4120,98 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="s">
-        <v>43</v>
+      <c r="B2" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="6" t="s">
-        <v>44</v>
+      <c r="C3" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="7" t="s">
-        <v>45</v>
+      <c r="D4" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="6" t="s">
-        <v>46</v>
+      <c r="C7" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="6" t="s">
-        <v>47</v>
+      <c r="D8" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="6" t="s">
-        <v>48</v>
+      <c r="D9" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="6" t="s">
-        <v>49</v>
+      <c r="D10" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="8" t="s">
-        <v>50</v>
+      <c r="E11" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="6" t="s">
-        <v>51</v>
+      <c r="C48" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="6" t="s">
-        <v>54</v>
+      <c r="C78" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D80" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="6" t="s">
-        <v>57</v>
+      <c r="C104" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D105" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D106" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3636,4 +4227,179 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="C:/tmp/"/>
+    <hyperlink ref="C58" r:id="rId2" display="C:/tmp/udemy/git_tutorial"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/02_手順書/xlsx/01_git手順書.xlsx
+++ b/02_手順書/xlsx/01_git手順書.xlsx
@@ -12,8 +12,8 @@
     <sheet name="1-1_gitの説明" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="1-2_gitインストール" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="1-3_github登録" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="ブランチの説明" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="リモートブランチ作成" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="1-4_ブランチの説明" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="1-5_リモートブランチ作成" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="2-1_git _add" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t xml:space="preserve">目次</t>
   </si>
@@ -137,6 +137,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">各コマンドの説明</t>
+  </si>
+  <si>
     <t xml:space="preserve">git add</t>
   </si>
   <si>
@@ -1171,6 +1174,27 @@
       </rPr>
       <t xml:space="preserve">リモートブランチの作成</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ブランチについて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ブランチには大本となるリモートブランチ、それから派生するトピックブランチがある。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リモートブランチとは、リリース版が何時でも作成可能なようしておくためのブランチ。また、トピックブランチの分岐元としても使用される。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そのため、安定した状態を保っておくことが重要である。何らかの変更を行う場合は、トピックブランチを作成して作業を行うことが多い。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トピックブランチとは、機能追加やバグ修正といったある課題に関する作業を行うために作成するブランチ。複数の課題に関する作業を同時に行う時は、その数だけトピックブランチが作成される。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">トピックブランチは安定した統合ブランチから分岐する形で作成し、作業が完了したら統合ブランチに取り込むという使い方をする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本的に、修正課題が入るたびにブランチを切り、修正を行う。修正が終わり、リモートブランチへのマージが完了後、ブランチを消す。（または、分かりやすいようにリネーム）</t>
   </si>
   <si>
     <t xml:space="preserve">リモートブランチの作成</t>
@@ -1205,6 +1229,7 @@
         <sz val="9"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">cd </t>
     </r>
@@ -1215,6 +1240,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">C:/tmp/</t>
     </r>
@@ -1224,6 +1250,7 @@
         <sz val="9"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">~~</t>
     </r>
@@ -1437,7 +1464,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">コマンドは、最終的にコミット・プッシュを行うファイルを選択するコマンド</t>
+      <t xml:space="preserve">コマンドは、コミット・プッシュを行うファイルを選択するコマンド</t>
     </r>
   </si>
   <si>
@@ -1486,6 +1513,135 @@
       </rPr>
       <t xml:space="preserve">からコマンド実行する</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">a.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」 を編集し、 「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">a.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」 だけを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンド実行</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">git add a.txt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">※git status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンドで今の状態が分かる。コミットをするか、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">をリセットしろと言われている。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">以降、コミットを参照</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1651,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1643,10 +1799,35 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="9"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b val="true"/>
@@ -1654,11 +1835,7 @@
       <color rgb="FF0000FF"/>
       <name val="Lucida Console"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b val="true"/>
@@ -1790,7 +1967,7 @@
     <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1847,11 +2024,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3575,20 +3756,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91080</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:colOff>784800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="画像 20" descr=""/>
+        <xdr:cNvPr id="40" name="画像 23" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3597,8 +3778,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438280" y="960480"/>
-          <a:ext cx="5758560" cy="3537720"/>
+          <a:off x="2715480" y="2257560"/>
+          <a:ext cx="5570280" cy="3308040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3612,20 +3793,227 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:colOff>696240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>89640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>507600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8197200" y="2028600"/>
+          <a:ext cx="1437120" cy="736200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -89990"/>
+            <a:gd name="adj2" fmla="val 117546"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>リモートブランチ</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>141480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>765720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8455320" y="3214440"/>
+          <a:ext cx="1437120" cy="736200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -119671"/>
+            <a:gd name="adj2" fmla="val 86310"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>トピックブランチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>181080</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>39960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>805320</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8494920" y="4257360"/>
+          <a:ext cx="1437120" cy="736200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -108625"/>
+            <a:gd name="adj2" fmla="val 62902"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>トピックブランチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>425880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457920</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="画像 21" descr=""/>
+        <xdr:cNvPr id="44" name="画像 24" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3634,8 +4022,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438280" y="5349600"/>
-          <a:ext cx="5758560" cy="3540960"/>
+          <a:off x="11178000" y="2699640"/>
+          <a:ext cx="5721840" cy="2480040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3647,22 +4035,101 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>763560</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>667080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:colOff>735840</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="画像 22" descr=""/>
+        <xdr:cNvPr id="45" name="画像 20" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2487960" y="1132560"/>
+          <a:ext cx="5758560" cy="3537720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>627480</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>105480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>696240</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="画像 21" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2448360" y="5588640"/>
+          <a:ext cx="5758560" cy="3540960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>597960</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666720</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>126360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="画像 22" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3671,7 +4138,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2388960" y="10829160"/>
+          <a:off x="2418840" y="11010960"/>
           <a:ext cx="5758560" cy="3539160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3686,25 +4153,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>555840</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>168480</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:colOff>370080</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>795600</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1"/>
+        <xdr:cNvPr id="48" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2994120" y="13737240"/>
+          <a:off x="3003840" y="13928400"/>
           <a:ext cx="425520" cy="258120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3730,24 +4197,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>207360</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:colOff>48600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>412920</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:colOff>254160</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="画像 19" descr=""/>
+        <xdr:cNvPr id="49" name="画像 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3756,7 +4223,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2018880" y="3803400"/>
+          <a:off x="1860120" y="1149480"/>
           <a:ext cx="7520760" cy="3692160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3767,6 +4234,278 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>398160</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="画像 25" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1811520" y="5342040"/>
+          <a:ext cx="4462200" cy="3012480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>372600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="画像 26" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7500960" y="5349600"/>
+          <a:ext cx="4436640" cy="2995200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>664560</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>565560</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6540120" y="6556680"/>
+          <a:ext cx="713880" cy="335160"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1985" h="933">
+              <a:moveTo>
+                <a:pt x="0" y="233"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1488" y="233"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1488" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1984" y="466"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1488" y="932"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1488" y="699"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="699"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="233"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>79200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>50400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="画像 27" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1890720" y="9330120"/>
+          <a:ext cx="5761440" cy="3540240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>709560</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>135000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>610200</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>141840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1708200" y="10679040"/>
+          <a:ext cx="4777560" cy="331920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="ff0000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>727560</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>36360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>610200</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1726200" y="11068200"/>
+          <a:ext cx="4759560" cy="1302480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="ff0000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3777,7 +4516,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D17"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3834,7 +4573,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3861,6 +4600,11 @@
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3893,57 +4637,57 @@
   <sheetData>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3979,112 +4723,112 @@
   <sheetData>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D86" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D138" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D164" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D190" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D216" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D243" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D269" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C272" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D273" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D303" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D330" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D356" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E357" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4121,97 +4865,97 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D80" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D105" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D106" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4234,17 +4978,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:D34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.83"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4252,6 +5036,7 @@
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4260,7 +5045,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="B2:E66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4268,86 +5053,90 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="9" t="s">
-        <v>64</v>
-      </c>
+    <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
-        <v>65</v>
+      <c r="C4" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="9" t="s">
-        <v>67</v>
+      <c r="D5" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="14" t="s">
-        <v>68</v>
+      <c r="C31" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="9" t="s">
-        <v>70</v>
+      <c r="D32" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="0" t="s">
-        <v>72</v>
+      <c r="D59" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="9" t="s">
-        <v>74</v>
+      <c r="D60" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="D65" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="C:/tmp/"/>
-    <hyperlink ref="C58" r:id="rId2" display="C:/tmp/udemy/git_tutorial"/>
+    <hyperlink ref="D6" r:id="rId1" display="C:/tmp/"/>
+    <hyperlink ref="D59" r:id="rId2" display="C:/tmp/udemy/git_tutorial"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -4365,7 +5154,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:D83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4379,17 +5168,42 @@
   <sheetData>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/02_手順書/xlsx/01_git手順書.xlsx
+++ b/02_手順書/xlsx/01_git手順書.xlsx
@@ -15,6 +15,11 @@
     <sheet name="1-4_ブランチの説明" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="1-5_リモートブランチ作成" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="2-1_git _add" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="2-2_git_commit" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="2-3_git_push" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="2-4_git_fetch" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="2-5_git_merge" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="2-6_git_stash" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="120">
   <si>
     <t xml:space="preserve">目次</t>
   </si>
@@ -850,433 +855,473 @@
     <t xml:space="preserve">ダウンロード、インストールしたバージョンと同じであれば完了。</t>
   </si>
   <si>
-    <t xml:space="preserve">※私の環境である、「git version 2.15.0.windows.1」が表示されている</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">に登録</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">1.Github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">のページに行き、ユーザー登録を行う</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">各項目を埋める</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Username</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：自分の分かりやすいものを</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：作業用のメールアドレス等を設定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：自分の分かりやすいものを</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">※練習用なので上記でも問題はない</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">プラン設定</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウントが作成されると、プランの設定画面に遷移する。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Unlimited public repositories for free</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">」にチェックを入れて、「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Continue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">」を押下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">アンケ―ト</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">プラン設定が終了すると、アンケート画面に遷移する</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">以下の通りにチェックを入れて「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">」を押下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">アカウント承認の確認</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">アンケートが終了すると、以下の画面に遷移する</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Start a project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">」を押下する</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント作成時に設定したメールアドレス宛にメールが届くので、承認を行って完了</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">リモートブランチの作成</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ブランチについて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ブランチには大本となるリモートブランチ、それから派生するトピックブランチがある。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモートブランチとは、リリース版が何時でも作成可能なようしておくためのブランチ。また、トピックブランチの分岐元としても使用される。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そのため、安定した状態を保っておくことが重要である。何らかの変更を行う場合は、トピックブランチを作成して作業を行うことが多い。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トピックブランチとは、機能追加やバグ修正といったある課題に関する作業を行うために作成するブランチ。複数の課題に関する作業を同時に行う時は、その数だけトピックブランチが作成される。  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">トピックブランチは安定した統合ブランチから分岐する形で作成し、作業が完了したら統合ブランチに取り込むという使い方をする。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本的に、修正課題が入るたびにブランチを切り、修正を行う。修正が終わり、リモートブランチへのマージが完了後、ブランチを消す。（または、分かりやすいようにリネーム）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモートブランチの作成</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">作業用のフォルダを作成する。今後はここがレポジトリになるので、分かりやすい場所が良い</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">レポジトリを作成したい場所まで移動する</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">※私の環境である、「</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">cd </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t xml:space="preserve">git version 2.15.0.windows.1</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">C:/tmp/</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」が表示されている</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">に登録</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">1.Github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">のページに行き、ユーザー登録を行う</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">各項目を埋める</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">：自分の分かりやすいものを</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">：作業用のメールアドレス等を設定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">：自分の分かりやすいものを</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">※練習用なので上記でも問題はない</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">プラン設定</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">アカウントが作成されると、プランの設定画面に遷移する。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Unlimited public repositories for free</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」にチェックを入れて、「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Continue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」を押下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">アンケ―ト</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">プラン設定が終了すると、アンケート画面に遷移する</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">以下の通りにチェックを入れて「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」を押下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">アカウント承認の確認</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">アンケートが終了すると、以下の画面に遷移する</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Start a project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」を押下する</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">アカウント作成時に設定したメールアドレス宛にメールが届くので、承認を行って完了</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">リモートブランチの作成</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ブランチについて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ブランチには大本となるリモートブランチ、それから派生するトピックブランチがある。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リモートブランチとは、リリース版が何時でも作成可能なようしておくためのブランチ。また、トピックブランチの分岐元としても使用される。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そのため、安定した状態を保っておくことが重要である。何らかの変更を行う場合は、トピックブランチを作成して作業を行うことが多い。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トピックブランチとは、機能追加やバグ修正といったある課題に関する作業を行うために作成するブランチ。複数の課題に関する作業を同時に行う時は、その数だけトピックブランチが作成される。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">トピックブランチは安定した統合ブランチから分岐する形で作成し、作業が完了したら統合ブランチに取り込むという使い方をする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本的に、修正課題が入るたびにブランチを切り、修正を行う。修正が終わり、リモートブランチへのマージが完了後、ブランチを消す。（または、分かりやすいようにリネーム）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リモートブランチの作成</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">作業用のフォルダを作成する。今後はここがレポジトリになるので、分かりやすい場所が良い</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">レポジトリを作成したい場所まで移動する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd C:/tmp/~~</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">リモートレポジトリ用のフォルダを作成する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">現環境では、</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">~~</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">リモートレポジトリ用のフォルダを作成する</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">現環境では、C:/tmp/udemy/　配下に「git_tutorial」フォルダを作成した</t>
+      <t xml:space="preserve">C:/tmp/udemy/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">　配下に「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git_tutorial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」フォルダを作成した</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">mkdir git_tutorial</t>
@@ -1302,61 +1347,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">cd </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">コマンドで、手順</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">で作成したフォルダに移動する（今回は </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">C:/tmp/udemy/git_tutorial</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
+    <t xml:space="preserve">cd コマンドで、手順2で作成したフォルダに移動する（今回は C:/tmp/udemy/git_tutorial）</t>
   </si>
   <si>
     <t xml:space="preserve">ディレクトリ移動後、リモートリポジトリの設定を行う</t>
@@ -1642,6 +1633,290 @@
   </si>
   <si>
     <t xml:space="preserve">以降、コミットを参照</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git commit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の説明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git commit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンドは、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">されたファイルを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">に登録・保存するコマンド</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">addコマンドを使用しただけでは、対象のブランチにファイルを保存できていない為、</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git commitを使用してブランチの更新（ファイルの登録・保存)を行っている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commitコマンドでは、ローカルレポジトリの更新が行われるがリモートレポジトリに反映はされない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コミットした内容をリモートレポジトリに反映させる場合は git push　コマンドを使用する必要がある。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の説明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンドは、コミット等でローカルレポジトリに保存された更新内容をリモートレポジトリに反映させるコマンド</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushを実行すると、リモートリポジトリに自分の変更履歴がアップロードされて、リモートリポジトリ内の変更履歴がローカルリポジトリの変更履歴と同じ状態になる </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git fetch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の説明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git fetch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンドは、みんなの更新内容を、自分の開発環境に取り入れるコマンド</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">fetchを使うことで、みんなの作ったコミットやブランチ・タグなどを、自分の環境に取り入れるができる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">誰かが更新したコミット分がリモートレポジトリにある場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローカルレポジトリに更新されたコミット分を取得することが出来る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※この際注意しなければならないのが、マージまでは行われないこと</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の説明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンドは、現在のブランチ(HEADの指している場所)へ、他のブランチの更新を取り込む処理</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Aさんの使っているブランチがブランチA。Bさんの使っているブランチがブランチBだったとする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この状況で、AさんがBさんの更新を取り込みたくなったとする。そこで使用するコマンドがマージコマンド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bさんの更新を取り込み、取り込んだ後のマージコミットが一つ作成される。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自分のブランチへ他のブランチの更新を取り込んだ事が確認できる</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git stash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の説明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git stash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンドは、現在の作業状況を一時的に保存したいときに使用される</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">※commitとは異なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コミットを行うとローカルレポジトリが更新されてしまう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存はしたいが、ローカルレポジトリの更新まではしたくない場合に使用する。</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1926,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1678,6 +1953,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -1685,7 +1967,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF333333"/>
+      <color rgb="FFCC0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1693,6 +1975,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF808080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1707,13 +1996,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -1721,14 +2003,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF333333"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1794,6 +2069,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Lucida Console"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1819,12 +2100,13 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="9"/>
+      <color rgb="FF0000FF"/>
       <name val="Lucida Console"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1832,7 +2114,6 @@
     <font>
       <b val="true"/>
       <sz val="9"/>
-      <color rgb="FF0000FF"/>
       <name val="Lucida Console"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1854,14 +2135,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1878,20 +2165,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1925,7 +2206,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1949,25 +2230,56 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2020,15 +2332,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2036,31 +2348,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Text" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
-    <cellStyle name="Footnote" xfId="25"/>
-    <cellStyle name="Hyperlink" xfId="26"/>
-    <cellStyle name="Status" xfId="27"/>
-    <cellStyle name="Good" xfId="28"/>
-    <cellStyle name="Neutral" xfId="29"/>
-    <cellStyle name="Bad" xfId="30"/>
-    <cellStyle name="Warning" xfId="31"/>
-    <cellStyle name="Error" xfId="32"/>
-    <cellStyle name="Accent" xfId="33"/>
-    <cellStyle name="Accent 1" xfId="34"/>
-    <cellStyle name="Accent 2" xfId="35"/>
-    <cellStyle name="Accent 3" xfId="36"/>
+    <cellStyle name="Accent 1 14" xfId="20"/>
+    <cellStyle name="Accent 13" xfId="21"/>
+    <cellStyle name="Accent 2 15" xfId="22"/>
+    <cellStyle name="Accent 3 16" xfId="23"/>
+    <cellStyle name="Bad 10" xfId="24"/>
+    <cellStyle name="Error 12" xfId="25"/>
+    <cellStyle name="Footnote 5" xfId="26"/>
+    <cellStyle name="Good 8" xfId="27"/>
+    <cellStyle name="Heading 1 1" xfId="28"/>
+    <cellStyle name="Heading 2 2" xfId="29"/>
+    <cellStyle name="Hyperlink 6" xfId="30"/>
+    <cellStyle name="Neutral 9" xfId="31"/>
+    <cellStyle name="Note 4" xfId="32"/>
+    <cellStyle name="Status 7" xfId="33"/>
+    <cellStyle name="Text 3" xfId="34"/>
+    <cellStyle name="Warning 11" xfId="35"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2136,9 +2451,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>798120</xdr:colOff>
+      <xdr:colOff>797400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2152,7 +2467,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1854000" y="2572560"/>
-          <a:ext cx="4819680" cy="2371680"/>
+          <a:ext cx="4818960" cy="2370960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2178,9 +2493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>340200</xdr:colOff>
+      <xdr:colOff>339480</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2194,7 +2509,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2232000" y="1347840"/>
-          <a:ext cx="5189040" cy="3374280"/>
+          <a:ext cx="5188320" cy="3373560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2215,9 +2530,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>646200</xdr:colOff>
+      <xdr:colOff>645480</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2227,7 +2542,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4083480" y="2973960"/>
-          <a:ext cx="2017800" cy="621720"/>
+          <a:ext cx="2017080" cy="621000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2258,9 +2573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>92880</xdr:colOff>
+      <xdr:colOff>92160</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2274,7 +2589,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2223720" y="5727960"/>
-          <a:ext cx="4950000" cy="3700080"/>
+          <a:ext cx="4949280" cy="3699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2295,9 +2610,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>83160</xdr:colOff>
+      <xdr:colOff>82440</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2311,7 +2626,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2214000" y="9925560"/>
-          <a:ext cx="4950000" cy="3700440"/>
+          <a:ext cx="4949280" cy="3699720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2332,9 +2647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>82800</xdr:colOff>
+      <xdr:colOff>82080</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2348,7 +2663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2213640" y="14161680"/>
-          <a:ext cx="4950000" cy="3700080"/>
+          <a:ext cx="4949280" cy="3699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2369,9 +2684,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>31680</xdr:colOff>
+      <xdr:colOff>30960</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2381,7 +2696,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5427000" y="8845560"/>
-          <a:ext cx="872640" cy="420120"/>
+          <a:ext cx="871920" cy="419400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2412,9 +2727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>11880</xdr:colOff>
+      <xdr:colOff>11160</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>118800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2424,7 +2739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5407200" y="13014360"/>
-          <a:ext cx="872640" cy="420120"/>
+          <a:ext cx="871920" cy="419400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2455,9 +2770,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>21600</xdr:colOff>
+      <xdr:colOff>20880</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2467,7 +2782,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5416920" y="17288640"/>
-          <a:ext cx="872640" cy="420120"/>
+          <a:ext cx="871920" cy="419400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2498,9 +2813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>63000</xdr:colOff>
+      <xdr:colOff>62280</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2514,7 +2829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2193840" y="22605120"/>
-          <a:ext cx="4950000" cy="3700440"/>
+          <a:ext cx="4949280" cy="3699720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2535,9 +2850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2551,7 +2866,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2203920" y="18369000"/>
-          <a:ext cx="4950000" cy="3700440"/>
+          <a:ext cx="4949280" cy="3699720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2572,9 +2887,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2588,7 +2903,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2203920" y="26841240"/>
-          <a:ext cx="4950000" cy="3700440"/>
+          <a:ext cx="4949280" cy="3699720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2609,9 +2924,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>212</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2625,7 +2940,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2203920" y="31039200"/>
-          <a:ext cx="4950000" cy="3700440"/>
+          <a:ext cx="4949280" cy="3699720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2646,9 +2961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>102600</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>239</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2662,7 +2977,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2233440" y="35342280"/>
-          <a:ext cx="4950000" cy="3700440"/>
+          <a:ext cx="4949280" cy="3699720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2683,9 +2998,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>265</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2699,7 +3014,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2203920" y="39655080"/>
-          <a:ext cx="4950000" cy="3700440"/>
+          <a:ext cx="4949280" cy="3699720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2720,9 +3035,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>308520</xdr:colOff>
+      <xdr:colOff>307800</xdr:colOff>
       <xdr:row>298</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2736,7 +3051,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2212560" y="44579160"/>
-          <a:ext cx="7615080" cy="4140360"/>
+          <a:ext cx="7614360" cy="4139640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2757,9 +3072,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>21600</xdr:colOff>
+      <xdr:colOff>20880</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2769,7 +3084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5416920" y="21649320"/>
-          <a:ext cx="872640" cy="420120"/>
+          <a:ext cx="871920" cy="419400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2800,9 +3115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676800</xdr:colOff>
+      <xdr:colOff>676080</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2812,7 +3127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2489760" y="19258560"/>
-          <a:ext cx="4455000" cy="717120"/>
+          <a:ext cx="4454280" cy="716400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2843,9 +3158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>785160</xdr:colOff>
+      <xdr:colOff>784440</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2855,7 +3170,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2480040" y="23351400"/>
-          <a:ext cx="3760200" cy="534960"/>
+          <a:ext cx="3759480" cy="534240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2886,9 +3201,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>458280</xdr:colOff>
+      <xdr:colOff>457560</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2898,7 +3213,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2559600" y="27596880"/>
-          <a:ext cx="4166640" cy="802800"/>
+          <a:ext cx="4165920" cy="802080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2929,9 +3244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>185</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2941,7 +3256,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5397120" y="29910600"/>
-          <a:ext cx="872640" cy="420120"/>
+          <a:ext cx="871920" cy="419400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2972,9 +3287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2984,7 +3299,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5397120" y="25703640"/>
-          <a:ext cx="872640" cy="420120"/>
+          <a:ext cx="871920" cy="419400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3015,9 +3330,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>547560</xdr:colOff>
+      <xdr:colOff>546840</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3027,7 +3342,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2490480" y="31727880"/>
-          <a:ext cx="4325040" cy="869760"/>
+          <a:ext cx="4324320" cy="869040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3058,9 +3373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>804600</xdr:colOff>
+      <xdr:colOff>803880</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3070,7 +3385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5387040" y="34184880"/>
-          <a:ext cx="872640" cy="420120"/>
+          <a:ext cx="871920" cy="419400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3101,9 +3416,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>131760</xdr:colOff>
+      <xdr:colOff>131040</xdr:colOff>
       <xdr:row>230</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>118800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3113,7 +3428,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2341440" y="35973360"/>
-          <a:ext cx="4871160" cy="1682640"/>
+          <a:ext cx="4870440" cy="1681920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3144,9 +3459,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>794880</xdr:colOff>
+      <xdr:colOff>794160</xdr:colOff>
       <xdr:row>237</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3156,7 +3471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5377320" y="38363760"/>
-          <a:ext cx="872640" cy="420120"/>
+          <a:ext cx="871920" cy="419400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3187,9 +3502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>804600</xdr:colOff>
+      <xdr:colOff>803880</xdr:colOff>
       <xdr:row>264</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3199,7 +3514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5387040" y="42800760"/>
-          <a:ext cx="872640" cy="420120"/>
+          <a:ext cx="871920" cy="419400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3230,9 +3545,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>802800</xdr:colOff>
+      <xdr:colOff>802080</xdr:colOff>
       <xdr:row>289</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3242,7 +3557,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2162520" y="46520640"/>
-          <a:ext cx="1657080" cy="640080"/>
+          <a:ext cx="1656360" cy="639360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3273,9 +3588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>324</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3289,7 +3604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2203920" y="49417920"/>
-          <a:ext cx="5763600" cy="3537720"/>
+          <a:ext cx="5762880" cy="3537000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3310,9 +3625,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>351</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3326,7 +3641,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2203920" y="53807040"/>
-          <a:ext cx="5763600" cy="3537720"/>
+          <a:ext cx="5762880" cy="3537000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3347,9 +3662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>487080</xdr:colOff>
+      <xdr:colOff>486360</xdr:colOff>
       <xdr:row>335</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3359,7 +3674,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2153160" y="54207720"/>
-          <a:ext cx="2976120" cy="497520"/>
+          <a:ext cx="2975400" cy="496800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3395,9 +3710,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>275760</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3411,7 +3726,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2641320" y="1965600"/>
-          <a:ext cx="10013040" cy="5243760"/>
+          <a:ext cx="10012320" cy="5243040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3432,9 +3747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3448,7 +3763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2628000" y="8337960"/>
-          <a:ext cx="6505560" cy="3857400"/>
+          <a:ext cx="6504840" cy="3856680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3469,9 +3784,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>719280</xdr:colOff>
+      <xdr:colOff>718560</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3481,7 +3796,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2559240" y="9065520"/>
-          <a:ext cx="4035600" cy="917280"/>
+          <a:ext cx="4034880" cy="916560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3512,9 +3827,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>143280</xdr:colOff>
+      <xdr:colOff>142560</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3524,7 +3839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2519280" y="11723400"/>
-          <a:ext cx="1060920" cy="487440"/>
+          <a:ext cx="1060200" cy="486720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3555,9 +3870,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>55800</xdr:colOff>
+      <xdr:colOff>55080</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3571,7 +3886,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2647800" y="13186440"/>
-          <a:ext cx="4908960" cy="3110400"/>
+          <a:ext cx="4908240" cy="3109680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3592,9 +3907,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>688680</xdr:colOff>
+      <xdr:colOff>687960</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3604,7 +3919,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2707920" y="14056560"/>
-          <a:ext cx="1417680" cy="334800"/>
+          <a:ext cx="1416960" cy="334080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3635,9 +3950,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>312480</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3647,7 +3962,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5702760" y="14677920"/>
-          <a:ext cx="1298880" cy="258480"/>
+          <a:ext cx="1298160" cy="257760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3678,9 +3993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5040</xdr:colOff>
+      <xdr:colOff>4320</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3690,7 +4005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4244760" y="15481440"/>
-          <a:ext cx="822960" cy="296280"/>
+          <a:ext cx="822240" cy="295560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3721,9 +4036,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>33480</xdr:colOff>
+      <xdr:colOff>32760</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3737,7 +4052,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2647800" y="17269560"/>
-          <a:ext cx="7325280" cy="3000240"/>
+          <a:ext cx="7324560" cy="2999520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3763,9 +4078,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>784800</xdr:colOff>
+      <xdr:colOff>784080</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3779,7 +4094,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2715480" y="2257560"/>
-          <a:ext cx="5570280" cy="3308040"/>
+          <a:ext cx="5569560" cy="3307320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3800,9 +4115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>507600</xdr:colOff>
+      <xdr:colOff>506880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3812,7 +4127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8197200" y="2028600"/>
-          <a:ext cx="1437120" cy="736200"/>
+          <a:ext cx="1436400" cy="735480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3841,7 +4156,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -3865,9 +4184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>765720</xdr:colOff>
+      <xdr:colOff>765000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3877,7 +4196,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8455320" y="3214440"/>
-          <a:ext cx="1437120" cy="736200"/>
+          <a:ext cx="1436400" cy="735480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3906,7 +4225,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -3936,9 +4259,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>805320</xdr:colOff>
+      <xdr:colOff>804600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3948,7 +4271,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8494920" y="4257360"/>
-          <a:ext cx="1437120" cy="736200"/>
+          <a:ext cx="1436400" cy="735480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3977,7 +4300,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -4007,9 +4334,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>457920</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4023,7 +4350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11178000" y="2699640"/>
-          <a:ext cx="5721840" cy="2480040"/>
+          <a:ext cx="5721120" cy="2479320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4049,9 +4376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>735840</xdr:colOff>
+      <xdr:colOff>735120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4065,7 +4392,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2487960" y="1132560"/>
-          <a:ext cx="5758560" cy="3537720"/>
+          <a:ext cx="5757840" cy="3537000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4086,9 +4413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>696240</xdr:colOff>
+      <xdr:colOff>695520</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4102,7 +4429,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2448360" y="5588640"/>
-          <a:ext cx="5758560" cy="3540960"/>
+          <a:ext cx="5757840" cy="3540240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4123,9 +4450,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>666720</xdr:colOff>
+      <xdr:colOff>666000</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4139,7 +4466,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2418840" y="11010960"/>
-          <a:ext cx="5758560" cy="3539160"/>
+          <a:ext cx="5757840" cy="3538440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4160,9 +4487,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>795600</xdr:colOff>
+      <xdr:colOff>794880</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4172,7 +4499,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3003840" y="13928400"/>
-          <a:ext cx="425520" cy="258120"/>
+          <a:ext cx="424800" cy="257400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4208,9 +4535,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>254160</xdr:colOff>
+      <xdr:colOff>253440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4224,7 +4551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1860120" y="1149480"/>
-          <a:ext cx="7520760" cy="3692160"/>
+          <a:ext cx="7520040" cy="3691440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4245,9 +4572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>398160</xdr:colOff>
+      <xdr:colOff>397440</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4261,7 +4588,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1811520" y="5342040"/>
-          <a:ext cx="4462200" cy="3012480"/>
+          <a:ext cx="4461480" cy="3011760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4282,9 +4609,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>372600</xdr:colOff>
+      <xdr:colOff>371880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4298,7 +4625,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7500960" y="5349600"/>
-          <a:ext cx="4436640" cy="2995200"/>
+          <a:ext cx="4435920" cy="2994480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4319,9 +4646,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>565560</xdr:colOff>
+      <xdr:colOff>564840</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4331,13 +4658,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6540120" y="6556680"/>
-          <a:ext cx="713880" cy="335160"/>
+          <a:ext cx="713160" cy="334440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="1985" h="933">
               <a:moveTo>
@@ -4394,9 +4721,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
+      <xdr:colOff>150480</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4410,7 +4737,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1890720" y="9330120"/>
-          <a:ext cx="5761440" cy="3540240"/>
+          <a:ext cx="5760720" cy="3539520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4431,9 +4758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>610200</xdr:colOff>
+      <xdr:colOff>609480</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4443,7 +4770,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1708200" y="10679040"/>
-          <a:ext cx="4777560" cy="331920"/>
+          <a:ext cx="4776840" cy="331200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4474,9 +4801,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>610200</xdr:colOff>
+      <xdr:colOff>609480</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4486,7 +4813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1726200" y="11068200"/>
-          <a:ext cx="4759560" cy="1302480"/>
+          <a:ext cx="4758840" cy="1301760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4506,6 +4833,206 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>73080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>769680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>136440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="画像 32" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1874520" y="1319040"/>
+          <a:ext cx="5573160" cy="1885680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>655920</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="画像 28" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1869840" y="1278000"/>
+          <a:ext cx="6345720" cy="3441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>655920</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="画像 29" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1869840" y="5504760"/>
+          <a:ext cx="6345720" cy="3446280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>170640</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="画像 30" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1860480" y="1117440"/>
+          <a:ext cx="5860080" cy="3178080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>164880</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="画像 31" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1860480" y="5506560"/>
+          <a:ext cx="5854320" cy="3174480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4618,6 +5145,177 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:C58"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:C57"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -4693,7 +5391,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
@@ -4837,7 +5535,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
@@ -4964,7 +5662,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
@@ -5031,7 +5729,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
@@ -5091,7 +5789,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="16" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5101,7 +5799,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5111,7 +5809,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="17" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5126,7 +5824,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="17" t="s">
         <v>84</v>
       </c>
       <c r="E66" s="9" t="s">
@@ -5135,12 +5833,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="C:/tmp/"/>
-    <hyperlink ref="D59" r:id="rId2" display="C:/tmp/udemy/git_tutorial"/>
+    <hyperlink ref="D6" r:id="rId1" display="cd C:/tmp/~~"/>
+    <hyperlink ref="D59" r:id="rId2" display="cd コマンドで、手順2で作成したフォルダに移動する（今回は C:/tmp/udemy/git_tutorial）"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
@@ -5156,8 +5854,8 @@
   </sheetPr>
   <dimension ref="B2:D83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A126" activeCellId="0" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5209,11 +5907,113 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/02_手順書/xlsx/01_git手順書.xlsx
+++ b/02_手順書/xlsx/01_git手順書.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t xml:space="preserve">目次</t>
   </si>
@@ -56,6 +56,263 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">#1-1_gitの説明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1-2_gitインストール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1-3_github登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1-4_ブランチの説明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1-5_リモートブランチ作成</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">2.git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンド</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#2-1_git _add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2-2_git_commit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2-3_git_push</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2-4_git_fetch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2-5_git_merge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2-6_git_stash</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の説明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">はバージョン管理システムの仕組み</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Gitの説明は・・・ドコ・・・？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">GitHub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">は、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の仕組みを使って動いているサービス名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">私たちが使用するのは、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の仕組みを利用した</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">というサービス</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">バージョン管理とは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新規開発や既存システムの改修の際、ソースファイルを新規作成または修正することがあります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修正後に不具合や問題があった場合、すぐに戻せるように修正前のファイルを残しておくことが一般的です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソースファイルを修正・編集する際、必ずバックアップを取得する必要がある。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">残し方はプロジェクトによって異なりますが、修正のたびにバックアップファイルを残そうとするとフォルダ構成やファイル名が複雑になりがちです。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">最終的には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">どのソースが最新なのか分からなくなり、ミスや</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">不具合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">が増えてしまう可能性がある。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">上記の点を防ぐため、GitやSVNなどのバージョン管理システムを使用して開発を行う場合が多い</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -72,13 +329,92 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">の説明</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
+      <t xml:space="preserve">インストール</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">※Github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">のほかにも</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">SVN(SubVersion)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">等のサービスがある。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">SVN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の仕組みと異なる点があるので注意</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">事前準備</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
@@ -87,44 +423,75 @@
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">インストール</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">登録</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ブランチの説明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモートブランチ作成</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">のインストール</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">1.git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">のダウンロードページに行き</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">をダウンロードする。（例）</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Git-2.24.0.2-64-bit.exe</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://git-scm.com/download/win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※アクセスした際に自動でダウンロードされる場合があるので注意。されない場合はOSに合わせてダウンロードする</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
@@ -133,603 +500,272 @@
     </r>
     <r>
       <rPr>
-        <sz val="20"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">コマンド</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">各コマンドの説明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git commit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git push</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git fetch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git merge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git stash</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">の説明</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">はバージョン管理システムの仕組み</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">GitHub</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">は、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">の仕組みを使って動いているサービス名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">私たちが使用するのは、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">の仕組みを利用した</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">というサービス</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">バージョン管理とは？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ソースファイルを修正・編集する際、必ずバックアップを取得する必要がある。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">さらに、修正・編集したファイルを修正・編集</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">......</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">となるとバックアップが大量になり、ファイル名やフォルダ階層が雑多になってしまう。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">どのソースが最新なのか分からなくなり、ミスが増えてしまう可能性がある。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">上記の点を防ぐため、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">等のバージョン管理システムを使用して開発を行う場合が多い</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">※Github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">のほかにも</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">SVN(SubVersion)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">等のサービスがある。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">SVN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">の仕組みと異なる点があるので注意</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">事前準備</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">のインストール</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">1.git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">のダウンロードページに行き</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">をダウンロードする。（例）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Git-2.24.0.2-64-bit.exe</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://git-scm.com/download/win</t>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">をインストールする</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">好みのテキストエディタを選択し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Use Git from Git Bash only </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を選択し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Use the OpenSSL library </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を選択し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Checkout Windows-style, commit Unix-style line endings を選択し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Use MinTTY(the default terminal of MSYS2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を選択し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Enable file system cachingとEnable Git Credential Manager を選択し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">チェックを付けずに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を押下</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">インストール完了まで待つ。</t>
   </si>
   <si>
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">※アクセスした際に勝手にダウンロードされたので注意。されない場合は</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">OS</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">に合わせてダウンロードする</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">2.git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">をインストールする</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Next</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を押下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">好みのテキストエディタを選択し</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Next</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を押下。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Next</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を押下。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">一番上の項目にチェックを入れ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Next</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を押下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">上、真ん中の項目にチェックを入れ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Next</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を押下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Install</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を押下</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">インストール完了まで待つ。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
@@ -1187,26 +1223,6 @@
     <t xml:space="preserve">アカウント作成時に設定したメールアドレス宛にメールが届くので、承認を行って完了</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">リモートブランチの作成</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">ブランチについて</t>
   </si>
   <si>
@@ -1219,13 +1235,43 @@
     <t xml:space="preserve">そのため、安定した状態を保っておくことが重要である。何らかの変更を行う場合は、トピックブランチを作成して作業を行うことが多い。</t>
   </si>
   <si>
-    <t xml:space="preserve">トピックブランチとは、機能追加やバグ修正といったある課題に関する作業を行うために作成するブランチ。複数の課題に関する作業を同時に行う時は、その数だけトピックブランチが作成される。  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">トピックブランチは安定した統合ブランチから分岐する形で作成し、作業が完了したら統合ブランチに取り込むという使い方をする。</t>
+    <t xml:space="preserve">トピックブランチとは、機能追加やバグ修正といったある課題に関する作業を行うために作成するブランチ。複数の課題に関する作業を同時に行う時は、課題の数だけトピックブランチが作成される。  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">トピックブランチは安定した</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">リモート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ブランチから分岐する形で作成し、作業が完了したらリモートブランチに取り込むという使い方をする。</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">基本的に、修正課題が入るたびにブランチを切り、修正を行う。修正が終わり、リモートブランチへのマージが完了後、ブランチを消す。（または、分かりやすいようにリネーム）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※ブランチを作成することをブランチを切ると言うことがあります。</t>
   </si>
   <si>
     <t xml:space="preserve">リモートブランチの作成</t>
@@ -1711,9 +1757,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Gitにというよりローカルレポジトリじゃないかなぁ・・・？</t>
+  </si>
+  <si>
     <t xml:space="preserve">addコマンドを使用しただけでは、対象のブランチにファイルを保存できていない為、</t>
   </si>
   <si>
+    <t xml:space="preserve">ファイルよりも変更点がいいかも…</t>
+  </si>
+  <si>
     <t xml:space="preserve">git commitを使用してブランチの更新（ファイルの登録・保存)を行っている。</t>
   </si>
   <si>
@@ -1764,6 +1816,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pushを実行すると、リモートリポジトリに自分の変更履歴がアップロードされて、リモートリポジトリ内の変更履歴がローカルリポジトリの変更履歴と同じ状態になる </t>
+  </si>
+  <si>
+    <t xml:space="preserve">リポジトリかレポジトリか表記を統一しない？</t>
   </si>
   <si>
     <r>
@@ -1926,7 +1981,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1953,13 +2008,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -1967,7 +2015,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFCC0000"/>
+      <color rgb="FF333333"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1975,13 +2023,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1996,6 +2037,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -2003,7 +2051,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF333333"/>
+      <color rgb="FFCC0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -2033,13 +2088,48 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike val="true"/>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="26"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
@@ -2056,14 +2146,6 @@
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFC9211E"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -2087,6 +2169,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFC9211E"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -2126,12 +2222,36 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFC9211E"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2153,32 +2273,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFC9211E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
   </fills>
@@ -2206,7 +2308,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2230,43 +2332,94 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2275,11 +2428,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2312,6 +2465,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2328,7 +2493,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2340,6 +2509,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2348,34 +2525,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="39">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 1 14" xfId="20"/>
-    <cellStyle name="Accent 13" xfId="21"/>
-    <cellStyle name="Accent 2 15" xfId="22"/>
-    <cellStyle name="Accent 3 16" xfId="23"/>
-    <cellStyle name="Bad 10" xfId="24"/>
-    <cellStyle name="Error 12" xfId="25"/>
-    <cellStyle name="Footnote 5" xfId="26"/>
-    <cellStyle name="Good 8" xfId="27"/>
-    <cellStyle name="Heading 1 1" xfId="28"/>
-    <cellStyle name="Heading 2 2" xfId="29"/>
-    <cellStyle name="Hyperlink 6" xfId="30"/>
-    <cellStyle name="Neutral 9" xfId="31"/>
-    <cellStyle name="Note 4" xfId="32"/>
-    <cellStyle name="Status 7" xfId="33"/>
-    <cellStyle name="Text 3" xfId="34"/>
-    <cellStyle name="Warning 11" xfId="35"/>
+    <cellStyle name="Heading" xfId="20"/>
+    <cellStyle name="Heading 1" xfId="21"/>
+    <cellStyle name="Heading 2" xfId="22"/>
+    <cellStyle name="Text" xfId="23"/>
+    <cellStyle name="Note" xfId="24"/>
+    <cellStyle name="Footnote" xfId="25"/>
+    <cellStyle name="Hyperlink" xfId="26"/>
+    <cellStyle name="Status" xfId="27"/>
+    <cellStyle name="Good" xfId="28"/>
+    <cellStyle name="Neutral" xfId="29"/>
+    <cellStyle name="Bad" xfId="30"/>
+    <cellStyle name="Warning" xfId="31"/>
+    <cellStyle name="Error" xfId="32"/>
+    <cellStyle name="Accent" xfId="33"/>
+    <cellStyle name="Accent 1" xfId="34"/>
+    <cellStyle name="Accent 2" xfId="35"/>
+    <cellStyle name="Accent 3" xfId="36"/>
+    <cellStyle name="Accent 1 14" xfId="37"/>
+    <cellStyle name="Accent 13" xfId="38"/>
+    <cellStyle name="Accent 2 15" xfId="39"/>
+    <cellStyle name="Accent 3 16" xfId="40"/>
+    <cellStyle name="Bad 10" xfId="41"/>
+    <cellStyle name="Error 12" xfId="42"/>
+    <cellStyle name="Footnote 5" xfId="43"/>
+    <cellStyle name="Good 8" xfId="44"/>
+    <cellStyle name="Heading 1 1" xfId="45"/>
+    <cellStyle name="Heading 2 2" xfId="46"/>
+    <cellStyle name="Hyperlink 6" xfId="47"/>
+    <cellStyle name="Neutral 9" xfId="48"/>
+    <cellStyle name="Note 4" xfId="49"/>
+    <cellStyle name="Status 7" xfId="50"/>
+    <cellStyle name="Text 3" xfId="51"/>
+    <cellStyle name="Warning 11" xfId="52"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2414,9 +2620,9 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
@@ -2445,15 +2651,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:colOff>4680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>797400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:colOff>759240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2466,8 +2672,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1854000" y="2572560"/>
-          <a:ext cx="4818960" cy="2370960"/>
+          <a:off x="1816200" y="2956320"/>
+          <a:ext cx="4818600" cy="2370600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2477,6 +2683,77 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>497160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>92880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>536400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3121560" y="2674440"/>
+          <a:ext cx="4103280" cy="1158840"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloudCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -33537"/>
+            <a:gd name="adj2" fmla="val 121643"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="2600" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>最新はどれ・・・？</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2600" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="ffffff"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2489,17 +2766,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>28080</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>339480</xdr:colOff>
+      <xdr:colOff>339120</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="画像 1" descr=""/>
+        <xdr:cNvPr id="2" name="画像 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2509,7 +2786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2232000" y="1347840"/>
-          <a:ext cx="5188320" cy="3373560"/>
+          <a:ext cx="5187960" cy="3373200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2526,23 +2803,23 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>253800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>645480</xdr:colOff>
+      <xdr:colOff>645120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4083480" y="2973960"/>
-          <a:ext cx="2017080" cy="621000"/>
+          <a:ext cx="2016720" cy="620640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2569,17 +2846,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>19800</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>92160</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="画像 2" descr=""/>
+        <xdr:cNvPr id="4" name="画像 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2589,7 +2866,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2223720" y="5727960"/>
-          <a:ext cx="4949280" cy="3699360"/>
+          <a:ext cx="4948920" cy="3699000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2605,18 +2882,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>10080</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
+      <xdr:colOff>82080</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="画像 3" descr=""/>
+        <xdr:cNvPr id="5" name="画像 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2626,7 +2903,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2214000" y="9925560"/>
-          <a:ext cx="4949280" cy="3699720"/>
+          <a:ext cx="4948920" cy="3699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2642,18 +2919,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9720</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>82080</xdr:colOff>
+      <xdr:colOff>81720</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="画像 4" descr=""/>
+        <xdr:cNvPr id="6" name="画像 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2663,7 +2940,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2213640" y="14161680"/>
-          <a:ext cx="4949280" cy="3699360"/>
+          <a:ext cx="4948920" cy="3699000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2680,23 +2957,23 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>784800</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>30960</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:colOff>30600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5427000" y="8845560"/>
-          <a:ext cx="871920" cy="419400"/>
+          <a:ext cx="871560" cy="419040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2722,24 +2999,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>765000</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>11160</xdr:colOff>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>118800</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5407200" y="13014360"/>
-          <a:ext cx="871920" cy="419400"/>
+          <a:ext cx="871560" cy="419040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2766,23 +3043,23 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>774720</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>20880</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>20520</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5416920" y="17288640"/>
-          <a:ext cx="871920" cy="419400"/>
+          <a:ext cx="871560" cy="419040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2808,18 +3085,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>802800</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>61920</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="画像 6" descr=""/>
+        <xdr:cNvPr id="10" name="画像 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2829,7 +3106,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2193840" y="22605120"/>
-          <a:ext cx="4949280" cy="3699720"/>
+          <a:ext cx="4948920" cy="3699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2845,18 +3122,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>72360</xdr:colOff>
+      <xdr:colOff>72000</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="画像 5" descr=""/>
+        <xdr:cNvPr id="11" name="画像 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2866,7 +3143,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2203920" y="18369000"/>
-          <a:ext cx="4949280" cy="3699720"/>
+          <a:ext cx="4948920" cy="3699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2882,18 +3159,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>72360</xdr:colOff>
+      <xdr:colOff>72000</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="画像 7" descr=""/>
+        <xdr:cNvPr id="12" name="画像 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2903,7 +3180,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2203920" y="26841240"/>
-          <a:ext cx="4949280" cy="3699720"/>
+          <a:ext cx="4948920" cy="3699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2919,18 +3196,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>72360</xdr:colOff>
+      <xdr:colOff>72000</xdr:colOff>
       <xdr:row>212</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="画像 8" descr=""/>
+        <xdr:cNvPr id="13" name="画像 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2940,7 +3217,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2203920" y="31039200"/>
-          <a:ext cx="4949280" cy="3699720"/>
+          <a:ext cx="4948920" cy="3699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2957,17 +3234,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>29520</xdr:colOff>
       <xdr:row>216</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>239</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="画像 9" descr=""/>
+        <xdr:cNvPr id="14" name="画像 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2977,7 +3254,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2233440" y="35342280"/>
-          <a:ext cx="4949280" cy="3699720"/>
+          <a:ext cx="4948920" cy="3699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2993,18 +3270,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>243</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>72360</xdr:colOff>
+      <xdr:colOff>72000</xdr:colOff>
       <xdr:row>265</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="画像 10" descr=""/>
+        <xdr:cNvPr id="15" name="画像 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3014,7 +3291,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2203920" y="39655080"/>
-          <a:ext cx="4949280" cy="3699720"/>
+          <a:ext cx="4948920" cy="3699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3030,18 +3307,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>8640</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>307800</xdr:colOff>
+      <xdr:colOff>307440</xdr:colOff>
       <xdr:row>298</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="画像 11" descr=""/>
+        <xdr:cNvPr id="16" name="画像 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3051,7 +3328,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2212560" y="44579160"/>
-          <a:ext cx="7614360" cy="4139640"/>
+          <a:ext cx="7614000" cy="4139280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3068,23 +3345,23 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>774720</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>20880</xdr:colOff>
+      <xdr:colOff>20520</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5416920" y="21649320"/>
-          <a:ext cx="871920" cy="419400"/>
+          <a:ext cx="871560" cy="419040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3111,23 +3388,23 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>285840</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2489760" y="19258560"/>
-          <a:ext cx="4454280" cy="716400"/>
+          <a:ext cx="4453920" cy="716040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3154,23 +3431,23 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>276120</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>784080</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2480040" y="23351400"/>
-          <a:ext cx="3759480" cy="534240"/>
+          <a:ext cx="3759120" cy="533880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3197,23 +3474,23 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>355680</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>457560</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvPr id="20" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2559600" y="27596880"/>
-          <a:ext cx="4165920" cy="802080"/>
+          <a:ext cx="4165560" cy="801720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3239,24 +3516,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>754920</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>813600</xdr:colOff>
       <xdr:row>185</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5397120" y="29910600"/>
-          <a:ext cx="871920" cy="419400"/>
+          <a:ext cx="871560" cy="419040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3282,24 +3559,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>754920</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>813600</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvPr id="22" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5397120" y="25703640"/>
-          <a:ext cx="871920" cy="419400"/>
+          <a:ext cx="871560" cy="419040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3326,23 +3603,23 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>286560</xdr:colOff>
       <xdr:row>194</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>546840</xdr:colOff>
+      <xdr:colOff>546480</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1"/>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2490480" y="31727880"/>
-          <a:ext cx="4324320" cy="869040"/>
+          <a:ext cx="4323960" cy="868680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3369,23 +3646,23 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>744840</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>803880</xdr:colOff>
+      <xdr:colOff>803520</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1"/>
+        <xdr:cNvPr id="24" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5387040" y="34184880"/>
-          <a:ext cx="871920" cy="419400"/>
+          <a:ext cx="871560" cy="419040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3412,23 +3689,23 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>137520</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>131040</xdr:colOff>
+      <xdr:colOff>130680</xdr:colOff>
       <xdr:row>230</xdr:row>
-      <xdr:rowOff>118800</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1"/>
+        <xdr:cNvPr id="25" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2341440" y="35973360"/>
-          <a:ext cx="4870440" cy="1681920"/>
+          <a:ext cx="4870080" cy="1681560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3454,24 +3731,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>735120</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>794160</xdr:colOff>
+      <xdr:colOff>793800</xdr:colOff>
       <xdr:row>237</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvPr id="26" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5377320" y="38363760"/>
-          <a:ext cx="871920" cy="419400"/>
+          <a:ext cx="871560" cy="419040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3498,23 +3775,23 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>744840</xdr:colOff>
       <xdr:row>262</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>803880</xdr:colOff>
+      <xdr:colOff>803520</xdr:colOff>
       <xdr:row>264</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="CustomShape 1"/>
+        <xdr:cNvPr id="27" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5387040" y="42800760"/>
-          <a:ext cx="871920" cy="419400"/>
+          <a:ext cx="871560" cy="419040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3540,24 +3817,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>771480</xdr:colOff>
-      <xdr:row>285</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>802080</xdr:colOff>
-      <xdr:row>289</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:colOff>801720</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CustomShape 1"/>
+        <xdr:cNvPr id="28" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2162520" y="46520640"/>
-          <a:ext cx="1656360" cy="639360"/>
+          <a:ext cx="1656000" cy="639000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3583,18 +3860,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>303</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>324</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="画像 12" descr=""/>
+        <xdr:cNvPr id="29" name="画像 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3604,7 +3881,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2203920" y="49417920"/>
-          <a:ext cx="5762880" cy="3537000"/>
+          <a:ext cx="5762520" cy="3536640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3620,18 +3897,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>330</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>351</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="画像 13" descr=""/>
+        <xdr:cNvPr id="30" name="画像 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3641,7 +3918,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2203920" y="53807040"/>
-          <a:ext cx="5762880" cy="3537000"/>
+          <a:ext cx="5762520" cy="3536640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3658,23 +3935,23 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>762120</xdr:colOff>
       <xdr:row>332</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>486360</xdr:colOff>
+      <xdr:colOff>486000</xdr:colOff>
       <xdr:row>335</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="CustomShape 1"/>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2153160" y="54207720"/>
-          <a:ext cx="2975400" cy="496800"/>
+          <a:ext cx="2975040" cy="496440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3710,13 +3987,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>275760</xdr:colOff>
+      <xdr:colOff>275400</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="画像 15" descr=""/>
+        <xdr:cNvPr id="32" name="画像 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3726,7 +4003,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2641320" y="1965600"/>
-          <a:ext cx="10012320" cy="5243040"/>
+          <a:ext cx="10011960" cy="5242680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3747,13 +4024,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>6120</xdr:colOff>
+      <xdr:colOff>5760</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="画像 16" descr=""/>
+        <xdr:cNvPr id="33" name="画像 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3763,7 +4040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2628000" y="8337960"/>
-          <a:ext cx="6504840" cy="3856680"/>
+          <a:ext cx="6504480" cy="3856320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3784,19 +4061,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>718560</xdr:colOff>
+      <xdr:colOff>718200</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvPr id="34" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2559240" y="9065520"/>
-          <a:ext cx="4034880" cy="916560"/>
+          <a:ext cx="4034520" cy="916200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3827,19 +4104,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>142560</xdr:colOff>
+      <xdr:colOff>142200</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvPr id="35" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2519280" y="11723400"/>
-          <a:ext cx="1060200" cy="486720"/>
+          <a:ext cx="1059840" cy="486360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3870,13 +4147,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>55080</xdr:colOff>
+      <xdr:colOff>54720</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="画像 17" descr=""/>
+        <xdr:cNvPr id="36" name="画像 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3886,7 +4163,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2647800" y="13186440"/>
-          <a:ext cx="4908240" cy="3109680"/>
+          <a:ext cx="4907880" cy="3109320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3907,19 +4184,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>687960</xdr:colOff>
+      <xdr:colOff>687600</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1"/>
+        <xdr:cNvPr id="37" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2707920" y="14056560"/>
-          <a:ext cx="1416960" cy="334080"/>
+          <a:ext cx="1416600" cy="333720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3950,19 +4227,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>312480</xdr:colOff>
+      <xdr:colOff>312120</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1"/>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5702760" y="14677920"/>
-          <a:ext cx="1298160" cy="257760"/>
+          <a:ext cx="1297800" cy="257400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3993,19 +4270,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvPr id="39" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4244760" y="15481440"/>
-          <a:ext cx="822240" cy="295560"/>
+          <a:ext cx="821880" cy="295200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4036,13 +4313,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>32760</xdr:colOff>
+      <xdr:colOff>32400</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="画像 18" descr=""/>
+        <xdr:cNvPr id="40" name="画像 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4052,7 +4329,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2647800" y="17269560"/>
-          <a:ext cx="7324560" cy="2999520"/>
+          <a:ext cx="7324200" cy="2999160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4074,17 +4351,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>91080</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>784080</xdr:colOff>
+      <xdr:colOff>783720</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="画像 23" descr=""/>
+        <xdr:cNvPr id="41" name="画像 23" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4094,7 +4371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2715480" y="2257560"/>
-          <a:ext cx="5569560" cy="3307320"/>
+          <a:ext cx="5569200" cy="3306960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4111,23 +4388,23 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>696240</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>506880</xdr:colOff>
+      <xdr:colOff>506520</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1"/>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8197200" y="2028600"/>
-          <a:ext cx="1436400" cy="735480"/>
+          <a:ext cx="1436040" cy="735120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -4180,23 +4457,23 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>141480</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>765000</xdr:colOff>
+      <xdr:colOff>764640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvPr id="43" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8455320" y="3214440"/>
-          <a:ext cx="1436400" cy="735480"/>
+          <a:ext cx="1436040" cy="735120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -4255,23 +4532,23 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>181080</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>804600</xdr:colOff>
+      <xdr:colOff>804240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1"/>
+        <xdr:cNvPr id="44" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8494920" y="4257360"/>
-          <a:ext cx="1436400" cy="735480"/>
+          <a:ext cx="1436040" cy="735120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -4330,17 +4607,17 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>425880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>456840</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="画像 24" descr=""/>
+        <xdr:cNvPr id="45" name="画像 24" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4350,7 +4627,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11178000" y="2699640"/>
-          <a:ext cx="5721120" cy="2479320"/>
+          <a:ext cx="5720760" cy="2478960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4376,13 +4653,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>735120</xdr:colOff>
+      <xdr:colOff>734760</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="画像 20" descr=""/>
+        <xdr:cNvPr id="46" name="画像 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4392,7 +4669,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2487960" y="1132560"/>
-          <a:ext cx="5757840" cy="3537000"/>
+          <a:ext cx="5757480" cy="3536640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4413,13 +4690,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>695520</xdr:colOff>
+      <xdr:colOff>695160</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="画像 21" descr=""/>
+        <xdr:cNvPr id="47" name="画像 21" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4429,7 +4706,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2448360" y="5588640"/>
-          <a:ext cx="5757840" cy="3540240"/>
+          <a:ext cx="5757480" cy="3539880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4450,13 +4727,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>666000</xdr:colOff>
+      <xdr:colOff>665640</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="画像 22" descr=""/>
+        <xdr:cNvPr id="48" name="画像 22" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4466,7 +4743,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2418840" y="11010960"/>
-          <a:ext cx="5757840" cy="3538440"/>
+          <a:ext cx="5757480" cy="3538080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4487,19 +4764,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>794880</xdr:colOff>
+      <xdr:colOff>794520</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1"/>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3003840" y="13928400"/>
-          <a:ext cx="424800" cy="257400"/>
+          <a:ext cx="424440" cy="257040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4535,13 +4812,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>253440</xdr:colOff>
+      <xdr:colOff>253080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="画像 19" descr=""/>
+        <xdr:cNvPr id="50" name="画像 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4551,7 +4828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1860120" y="1149480"/>
-          <a:ext cx="7520040" cy="3691440"/>
+          <a:ext cx="7519680" cy="3691080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4572,13 +4849,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>397440</xdr:colOff>
+      <xdr:colOff>397080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="画像 25" descr=""/>
+        <xdr:cNvPr id="51" name="画像 25" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4588,7 +4865,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1811520" y="5342040"/>
-          <a:ext cx="4461480" cy="3011760"/>
+          <a:ext cx="4461120" cy="3011400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4609,13 +4886,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>371880</xdr:colOff>
+      <xdr:colOff>371520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="画像 26" descr=""/>
+        <xdr:cNvPr id="52" name="画像 26" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4625,7 +4902,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7500960" y="5349600"/>
-          <a:ext cx="4435920" cy="2994480"/>
+          <a:ext cx="4435560" cy="2994120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4646,19 +4923,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>564840</xdr:colOff>
+      <xdr:colOff>564480</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6540120" y="6556680"/>
-          <a:ext cx="713160" cy="334440"/>
+          <a:ext cx="712800" cy="334080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4721,13 +4998,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
+      <xdr:colOff>150120</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="画像 27" descr=""/>
+        <xdr:cNvPr id="54" name="画像 27" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4737,7 +5014,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1890720" y="9330120"/>
-          <a:ext cx="5760720" cy="3539520"/>
+          <a:ext cx="5760360" cy="3539160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4758,19 +5035,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>609480</xdr:colOff>
+      <xdr:colOff>609120</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="CustomShape 1"/>
+        <xdr:cNvPr id="55" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1708200" y="10679040"/>
-          <a:ext cx="4776840" cy="331200"/>
+          <a:ext cx="4776480" cy="330840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4801,19 +5078,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>609480</xdr:colOff>
+      <xdr:colOff>609120</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="CustomShape 1"/>
+        <xdr:cNvPr id="56" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1726200" y="11068200"/>
-          <a:ext cx="4758840" cy="1301760"/>
+          <a:ext cx="4758480" cy="1301400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4845,17 +5122,17 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>73080</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>769680</xdr:colOff>
+      <xdr:colOff>769320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="画像 32" descr=""/>
+        <xdr:cNvPr id="57" name="画像 32" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4865,7 +5142,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1874520" y="1319040"/>
-          <a:ext cx="5573160" cy="1885680"/>
+          <a:ext cx="5572800" cy="1885320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4885,19 +5162,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>655920</xdr:colOff>
+      <xdr:colOff>656280</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="画像 28" descr=""/>
+        <xdr:cNvPr id="58" name="画像 28" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4906,8 +5183,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1869840" y="1278000"/>
-          <a:ext cx="6345720" cy="3441960"/>
+          <a:off x="1870560" y="1278720"/>
+          <a:ext cx="6345360" cy="3441600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4922,19 +5199,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>655920</xdr:colOff>
+      <xdr:colOff>656280</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="画像 29" descr=""/>
+        <xdr:cNvPr id="59" name="画像 29" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4943,8 +5220,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1869840" y="5504760"/>
-          <a:ext cx="6345720" cy="3446280"/>
+          <a:off x="1870560" y="5504760"/>
+          <a:ext cx="6345360" cy="3445920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4966,17 +5243,17 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>170640</xdr:colOff>
+      <xdr:colOff>170280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="画像 30" descr=""/>
+        <xdr:cNvPr id="60" name="画像 30" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4986,7 +5263,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1860480" y="1117440"/>
-          <a:ext cx="5860080" cy="3178080"/>
+          <a:ext cx="5859720" cy="3177720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5003,17 +5280,17 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>164880</xdr:colOff>
+      <xdr:colOff>164520</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="画像 31" descr=""/>
+        <xdr:cNvPr id="61" name="画像 31" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5023,7 +5300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1860480" y="5506560"/>
-          <a:ext cx="5854320" cy="3174480"/>
+          <a:ext cx="5853960" cy="3174120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5043,7 +5320,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -5052,7 +5329,7 @@
   <sheetFormatPr defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.83"/>
@@ -5069,72 +5346,81 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="7" t="s">
+    <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="7" t="s">
+    <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="7" t="s">
+    <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="2" t="s">
+    <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="2" t="s">
+    <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="8" t="s">
+    <row r="11" s="8" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="2" t="s">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="7" t="s">
+    <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="7" t="s">
+    <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="7" t="s">
+    <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="7" t="s">
+    <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="7" t="s">
+    <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" location="1-1_gitの説明" display="#1-1_gitの説明"/>
+    <hyperlink ref="C6" location="1-2_gitインストール" display="#1-2_gitインストール"/>
+    <hyperlink ref="C7" location="1-3_github登録" display="#1-3_github登録"/>
+    <hyperlink ref="C8" location="1-4_ブランチの説明" display="#1-4_ブランチの説明"/>
+    <hyperlink ref="C9" location="1-5_リモートブランチ作成" display="#1-5_リモートブランチ作成"/>
+    <hyperlink ref="C12" location="2-1_git _add" display="#2-1_git _add"/>
+    <hyperlink ref="C13" location="2-2_git_commit" display="#2-2_git_commit"/>
+    <hyperlink ref="C14" location="2-3_git_push" display="#2-3_git_push"/>
+    <hyperlink ref="C15" location="2-4_git_fetch" display="#2-4_git_fetch"/>
+    <hyperlink ref="C16" location="2-5_git_merge" display="#2-5_git_merge"/>
+    <hyperlink ref="C17" location="2-6_git_stash" display="#2-6_git_stash"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5152,7 +5438,7 @@
   </sheetPr>
   <dimension ref="B2:C58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5163,33 +5449,33 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="s">
-        <v>103</v>
+      <c r="B2" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="9" t="s">
-        <v>104</v>
+      <c r="C4" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5211,7 +5497,7 @@
   </sheetPr>
   <dimension ref="B2:C57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5221,34 +5507,34 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="s">
-        <v>109</v>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="9" t="s">
-        <v>110</v>
+      <c r="C4" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5567,28 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="s">
-        <v>115</v>
+      <c r="B2" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="9" t="s">
-        <v>116</v>
+      <c r="C4" s="12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5321,7 +5607,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D36"/>
+  <dimension ref="B2:G38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -5334,17 +5620,20 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="9" t="s">
+      <c r="G3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5358,34 +5647,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1"/>
+      <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1"/>
+      <c r="C10" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="14" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="9" t="s">
+      <c r="C13" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="9" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="14"/>
+      <c r="D38" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5405,10 +5713,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:E357"/>
+  <dimension ref="B2:E355"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5421,112 +5729,115 @@
   <sheetData>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="9" t="s">
-        <v>28</v>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="10" t="s">
-        <v>29</v>
+      <c r="D6" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="9" t="s">
-        <v>31</v>
+      <c r="E7" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="D34" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="9" t="s">
-        <v>32</v>
+      <c r="D60" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D86" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D112" s="9" t="s">
-        <v>34</v>
+      <c r="D112" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D138" s="9" t="s">
-        <v>32</v>
+      <c r="D138" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D164" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D190" s="9" t="s">
-        <v>32</v>
+      <c r="D190" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D216" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D243" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D269" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="9" t="s">
-        <v>39</v>
+      <c r="D243" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D267" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C270" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D273" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D303" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D330" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D356" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E357" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D302" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D329" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D354" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E355" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5552,7 +5863,7 @@
   <dimension ref="B2:E130"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5562,99 +5873,97 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="9" t="s">
-        <v>45</v>
+      <c r="B2" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="9" t="s">
-        <v>46</v>
+      <c r="C3" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="10" t="s">
-        <v>47</v>
+      <c r="D4" s="17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="9" t="s">
-        <v>48</v>
+      <c r="C7" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="9" t="s">
-        <v>49</v>
+      <c r="D8" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="9" t="s">
-        <v>50</v>
+      <c r="D9" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="9" t="s">
-        <v>51</v>
+      <c r="D10" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="11" t="s">
-        <v>52</v>
+      <c r="E11" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="9" t="s">
-        <v>53</v>
+      <c r="C48" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="9" t="s">
-        <v>56</v>
+      <c r="C78" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D80" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="9" t="s">
-        <v>59</v>
+      <c r="C104" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D105" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D106" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="C130" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5676,54 +5985,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D34"/>
+  <dimension ref="B2:D35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="13" t="s">
-        <v>65</v>
+      <c r="C3" s="21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="14" t="s">
-        <v>66</v>
+      <c r="D4" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="14" t="s">
-        <v>67</v>
+      <c r="D5" s="22" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="14" t="s">
-        <v>69</v>
+      <c r="D7" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="13" t="s">
-        <v>70</v>
+      <c r="C34" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="23" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5757,78 +6071,78 @@
   <sheetData>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="9" t="s">
-        <v>72</v>
+      <c r="C4" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="15" t="s">
-        <v>74</v>
+      <c r="D6" s="24" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="9" t="s">
-        <v>75</v>
+      <c r="C31" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="12" t="s">
-        <v>76</v>
+      <c r="D32" s="20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="16" t="s">
-        <v>77</v>
+      <c r="D33" s="25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="9" t="s">
-        <v>78</v>
+      <c r="C58" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="10" t="s">
-        <v>79</v>
+      <c r="D59" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="17" t="s">
-        <v>81</v>
+      <c r="D61" s="26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="9" t="s">
-        <v>82</v>
+      <c r="C64" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="9" t="s">
-        <v>83</v>
+      <c r="D65" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>85</v>
+      <c r="D66" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5854,8 +6168,8 @@
   </sheetPr>
   <dimension ref="B2:D83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A126" activeCellId="0" sqref="A126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5865,43 +6179,43 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="s">
-        <v>86</v>
+      <c r="B2" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="9" t="s">
-        <v>87</v>
+      <c r="C4" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="9" t="s">
-        <v>90</v>
+      <c r="C55" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="9" t="s">
-        <v>91</v>
+      <c r="C56" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D80" s="9" t="s">
-        <v>92</v>
+      <c r="D80" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5921,7 +6235,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -5933,34 +6247,40 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="s">
-        <v>94</v>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="9" t="s">
-        <v>95</v>
+      <c r="C4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5979,7 +6299,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:N5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -5991,19 +6311,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="s">
-        <v>100</v>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="9" t="s">
-        <v>101</v>
+      <c r="C4" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
